--- a/data/trans_orig/P16A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>32400</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22229</v>
+        <v>22882</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45108</v>
+        <v>45116</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03140376729465677</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02154545518666432</v>
+        <v>0.02217805212030903</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04372101400238399</v>
+        <v>0.04372886712870062</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -765,19 +765,19 @@
         <v>33714</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23815</v>
+        <v>23214</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45798</v>
+        <v>45904</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02563571913636887</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01810845000385382</v>
+        <v>0.0176515244071873</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03482402280803674</v>
+        <v>0.03490466500277784</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -786,19 +786,19 @@
         <v>66114</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50529</v>
+        <v>51658</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83073</v>
+        <v>81920</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02817148574547865</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02153063499561875</v>
+        <v>0.02201169820593353</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03539774788429788</v>
+        <v>0.03490679530028008</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>999323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>986615</v>
+        <v>986607</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1009494</v>
+        <v>1008841</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9685962327053432</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9562789859976162</v>
+        <v>0.9562711328712994</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9784545448133357</v>
+        <v>0.977821947879691</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1258</v>
@@ -836,19 +836,19 @@
         <v>1281399</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1269315</v>
+        <v>1269209</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1291298</v>
+        <v>1291899</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9743642808636311</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9651759771919632</v>
+        <v>0.9650953349972237</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9818915499961461</v>
+        <v>0.9823484755928138</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2263</v>
@@ -857,19 +857,19 @@
         <v>2280721</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2263762</v>
+        <v>2264915</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2296306</v>
+        <v>2295177</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9718285142545213</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9646022521157021</v>
+        <v>0.9650932046997197</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9784693650043812</v>
+        <v>0.9779883017940664</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>21747</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14451</v>
+        <v>13847</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32552</v>
+        <v>33210</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01284962799692615</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008538971118915899</v>
+        <v>0.00818171557377814</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01923405650764052</v>
+        <v>0.01962327371748859</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -982,19 +982,19 @@
         <v>35266</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25413</v>
+        <v>24406</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49043</v>
+        <v>47715</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02221228454914586</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01600655529128544</v>
+        <v>0.01537221648721522</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03088997218161173</v>
+        <v>0.0300533980270641</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -1003,19 +1003,19 @@
         <v>57012</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43377</v>
+        <v>43863</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73320</v>
+        <v>74307</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0173814974716109</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01322447806002759</v>
+        <v>0.01337270833694399</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02235313886943094</v>
+        <v>0.02265425652673714</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1670647</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1659842</v>
+        <v>1659184</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1677943</v>
+        <v>1678547</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9871503720030739</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9807659434923593</v>
+        <v>0.9803767262825118</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.991461028881084</v>
+        <v>0.991818284426222</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1519</v>
@@ -1053,19 +1053,19 @@
         <v>1552407</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1538630</v>
+        <v>1539958</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1562260</v>
+        <v>1563267</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9777877154508542</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9691100278183871</v>
+        <v>0.9699466019729358</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9839934447087144</v>
+        <v>0.9846277835127847</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3145</v>
@@ -1074,19 +1074,19 @@
         <v>3223055</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3206747</v>
+        <v>3205760</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3236690</v>
+        <v>3236204</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9826185025283891</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9776468611305691</v>
+        <v>0.9773457434732629</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9867755219399723</v>
+        <v>0.9866272916630561</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>4516</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11603</v>
+        <v>11876</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008189828139493522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002695613421124273</v>
+        <v>0.002700382082245064</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02104324308420297</v>
+        <v>0.02153834398688214</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1199,19 +1199,19 @@
         <v>5810</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2429</v>
+        <v>1978</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12321</v>
+        <v>12365</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01219511035999747</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005098486638091832</v>
+        <v>0.004151902884783539</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02586292726609108</v>
+        <v>0.02595344375523148</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1220,19 +1220,19 @@
         <v>10326</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5071</v>
+        <v>4799</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18698</v>
+        <v>17318</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01004634372777229</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004933923591992222</v>
+        <v>0.004668789400296609</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01819167610930509</v>
+        <v>0.01684939992553428</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>546892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>539805</v>
+        <v>539532</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>549922</v>
+        <v>549919</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9918101718605065</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9789567569157972</v>
+        <v>0.9784616560131179</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9973043865788758</v>
+        <v>0.9972996179177549</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>446</v>
@@ -1270,19 +1270,19 @@
         <v>470602</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>464091</v>
+        <v>464047</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>473983</v>
+        <v>474434</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9878048896400026</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9741370727339075</v>
+        <v>0.974046556244768</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9949015133619076</v>
+        <v>0.9958480971152162</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>969</v>
@@ -1291,19 +1291,19 @@
         <v>1017494</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1009122</v>
+        <v>1010502</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1022749</v>
+        <v>1023021</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9899536562722278</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9818083238906948</v>
+        <v>0.9831506000744656</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9950660764080078</v>
+        <v>0.9953312105997034</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>58663</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45169</v>
+        <v>45163</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75431</v>
+        <v>75639</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0179093597392352</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01378977435704009</v>
+        <v>0.01378810503931462</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02302874057988636</v>
+        <v>0.02309209636156779</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>74</v>
@@ -1416,19 +1416,19 @@
         <v>74790</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59623</v>
+        <v>60325</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95690</v>
+        <v>94621</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02213235544410175</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01764408954218095</v>
+        <v>0.01785189251954013</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02831724624947891</v>
+        <v>0.02800115905029992</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>133</v>
@@ -1437,19 +1437,19 @@
         <v>133452</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111389</v>
+        <v>111051</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>158502</v>
+        <v>157842</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02005375205686265</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01673836752900124</v>
+        <v>0.01668753418423446</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02381799864549361</v>
+        <v>0.02371886825728065</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3216862</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3200094</v>
+        <v>3199886</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3230356</v>
+        <v>3230362</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9820906402607648</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9769712594201136</v>
+        <v>0.9769079036384323</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.98621022564296</v>
+        <v>0.9862118949606854</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3223</v>
@@ -1487,19 +1487,19 @@
         <v>3304407</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3283507</v>
+        <v>3284576</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3319574</v>
+        <v>3318872</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9778676445558983</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9716827537505212</v>
+        <v>0.9719988409497001</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9823559104578191</v>
+        <v>0.9821481074804598</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6377</v>
@@ -1508,19 +1508,19 @@
         <v>6521270</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6496220</v>
+        <v>6496880</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6543333</v>
+        <v>6543671</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9799462479431373</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9761820013545064</v>
+        <v>0.9762811317427196</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9832616324709988</v>
+        <v>0.9833124658157657</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>33056</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22289</v>
+        <v>21591</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47258</v>
+        <v>46668</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03409124850424093</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02298639149468891</v>
+        <v>0.02226644967743653</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04873691574727018</v>
+        <v>0.0481292511200705</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -1872,19 +1872,19 @@
         <v>35428</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24381</v>
+        <v>25210</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47958</v>
+        <v>49035</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02656526278012363</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01828193309569251</v>
+        <v>0.01890355869440329</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03596071563719408</v>
+        <v>0.03676805084429077</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -1893,19 +1893,19 @@
         <v>68485</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52933</v>
+        <v>53423</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86663</v>
+        <v>87216</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02973358977150917</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0229816477090562</v>
+        <v>0.02319413523074756</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03762576273262298</v>
+        <v>0.03786606062062737</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>936589</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>922387</v>
+        <v>922977</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>947356</v>
+        <v>948054</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9659087514957591</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9512630842527299</v>
+        <v>0.9518707488799296</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.977013608505311</v>
+        <v>0.9777335503225635</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1210</v>
@@ -1943,19 +1943,19 @@
         <v>1298204</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1285674</v>
+        <v>1284597</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1309251</v>
+        <v>1308422</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9734347372198764</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9640392843628058</v>
+        <v>0.9632319491557092</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9817180669043075</v>
+        <v>0.9810964413055966</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2086</v>
@@ -1964,19 +1964,19 @@
         <v>2234793</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2216615</v>
+        <v>2216062</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2250345</v>
+        <v>2249855</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9702664102284908</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9623742372673769</v>
+        <v>0.9621339393793726</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9770183522909437</v>
+        <v>0.9768058647692525</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>54510</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39583</v>
+        <v>39929</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72487</v>
+        <v>72275</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0278236182130399</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02020464534827068</v>
+        <v>0.02038103071928343</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.036999789795363</v>
+        <v>0.03689160520793724</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -2089,19 +2089,19 @@
         <v>59035</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45350</v>
+        <v>44693</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77160</v>
+        <v>76051</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03371786028180638</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02590164208369176</v>
+        <v>0.02552661105766434</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04406971746661559</v>
+        <v>0.04343672879779747</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -2110,19 +2110,19 @@
         <v>113545</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>93525</v>
+        <v>94856</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139209</v>
+        <v>139291</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03060528897087002</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02520892412105206</v>
+        <v>0.02556776181824725</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03752297114890008</v>
+        <v>0.03754492545993705</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1904618</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1886641</v>
+        <v>1886853</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1919545</v>
+        <v>1919199</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9721763817869601</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9630002102046372</v>
+        <v>0.9631083947920627</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9797953546517293</v>
+        <v>0.9796189692807166</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1575</v>
@@ -2160,19 +2160,19 @@
         <v>1691816</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1673691</v>
+        <v>1674800</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1705501</v>
+        <v>1706158</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9662821397181937</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9559302825333844</v>
+        <v>0.9565632712022025</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9740983579163082</v>
+        <v>0.9744733889423357</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3379</v>
@@ -2181,19 +2181,19 @@
         <v>3596435</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3570771</v>
+        <v>3570689</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3616455</v>
+        <v>3615124</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.96939471102913</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9624770288510998</v>
+        <v>0.962455074540063</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9747910758789479</v>
+        <v>0.9744322381817527</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>9239</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4061</v>
+        <v>4073</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19634</v>
+        <v>20241</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01923416702613293</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008453972699764676</v>
+        <v>0.008479501206319332</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04087493560680969</v>
+        <v>0.04213905758765116</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2306,19 +2306,19 @@
         <v>6854</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2774</v>
+        <v>2888</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15023</v>
+        <v>15381</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01497699628352156</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006061250335040452</v>
+        <v>0.006311355870582092</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03282594435889599</v>
+        <v>0.0336089235869932</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -2327,19 +2327,19 @@
         <v>16093</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8847</v>
+        <v>8883</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27639</v>
+        <v>27987</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01715704424340361</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009432170418038115</v>
+        <v>0.009470327187283209</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02946619439534512</v>
+        <v>0.02983784300046212</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>471093</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>460698</v>
+        <v>460091</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>476271</v>
+        <v>476259</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9807658329738671</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9591250643931905</v>
+        <v>0.9578609424123489</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9915460273002353</v>
+        <v>0.9915204987936806</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>405</v>
@@ -2377,19 +2377,19 @@
         <v>450800</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>442631</v>
+        <v>442273</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>454880</v>
+        <v>454766</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9850230037164784</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.967174055641104</v>
+        <v>0.9663910764130067</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9939387496649595</v>
+        <v>0.9936886441294179</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>835</v>
@@ -2398,19 +2398,19 @@
         <v>921893</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>910347</v>
+        <v>909999</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>929139</v>
+        <v>929103</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9828429557565964</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.970533805604655</v>
+        <v>0.970162156999538</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.990567829581962</v>
+        <v>0.9905296728127169</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>96805</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76813</v>
+        <v>76916</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>118456</v>
+        <v>119694</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02839608259907664</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02253165835837096</v>
+        <v>0.02256201329561353</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0347467962758835</v>
+        <v>0.0351099644564157</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>93</v>
@@ -2523,19 +2523,19 @@
         <v>101318</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83059</v>
+        <v>81591</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124083</v>
+        <v>123201</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02860349917583399</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02344887973191984</v>
+        <v>0.02303426010207155</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03503062479348226</v>
+        <v>0.0347814608459933</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>176</v>
@@ -2544,19 +2544,19 @@
         <v>198123</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>167792</v>
+        <v>169566</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>228831</v>
+        <v>229847</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02850177565227894</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02413840717040793</v>
+        <v>0.02439368320655311</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03291947226354199</v>
+        <v>0.03306553337723677</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3312301</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3290650</v>
+        <v>3289412</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3332293</v>
+        <v>3332190</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9716039174009233</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9652532037241164</v>
+        <v>0.9648900355435841</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.977468341641629</v>
+        <v>0.9774379867043864</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3190</v>
@@ -2594,19 +2594,19 @@
         <v>3440820</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3418055</v>
+        <v>3418937</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3459079</v>
+        <v>3460547</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.971396500824166</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9649693752065178</v>
+        <v>0.9652185391540067</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9765511202680801</v>
+        <v>0.9769657398979285</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6300</v>
@@ -2615,19 +2615,19 @@
         <v>6753121</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6722413</v>
+        <v>6721397</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6783452</v>
+        <v>6781678</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.971498224347721</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9670805277364581</v>
+        <v>0.9669344666227631</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9758615928295921</v>
+        <v>0.9756063167934469</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>9307</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4266</v>
+        <v>4492</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16023</v>
+        <v>16732</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01233815197311528</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00565569198966129</v>
+        <v>0.005955127273769553</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02124103065054607</v>
+        <v>0.02218039399963252</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -2979,19 +2979,19 @@
         <v>22717</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14398</v>
+        <v>14368</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34593</v>
+        <v>33867</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02283937777434999</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01447485663844043</v>
+        <v>0.0144454279847066</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03477913446080888</v>
+        <v>0.03404864990777719</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -3000,19 +3000,19 @@
         <v>32025</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23089</v>
+        <v>22889</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46144</v>
+        <v>45357</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01831019860580425</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01320146994647681</v>
+        <v>0.01308702332401218</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02638280839192221</v>
+        <v>0.02593319631262069</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>745040</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>738324</v>
+        <v>737615</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>750081</v>
+        <v>749855</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9876618480268847</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9787589693494542</v>
+        <v>0.977819606000368</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9943443080103388</v>
+        <v>0.9940448727262307</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>872</v>
@@ -3050,19 +3050,19 @@
         <v>971943</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>960067</v>
+        <v>960793</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>980262</v>
+        <v>980292</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.97716062222565</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9652208655391912</v>
+        <v>0.9659513500922228</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9855251433615595</v>
+        <v>0.9855545720152934</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1624</v>
@@ -3071,19 +3071,19 @@
         <v>1716982</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1702863</v>
+        <v>1703650</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1725918</v>
+        <v>1726118</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9816898013941957</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9736171916080779</v>
+        <v>0.9740668036873797</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9867985300535234</v>
+        <v>0.9869129766759878</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>45666</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33808</v>
+        <v>32682</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61640</v>
+        <v>59478</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02199285083608821</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01628203370700134</v>
+        <v>0.01573979998622939</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02968614489309685</v>
+        <v>0.02864489664723141</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -3196,19 +3196,19 @@
         <v>41152</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29522</v>
+        <v>29783</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56069</v>
+        <v>54951</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02069702174499544</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01484795435181088</v>
+        <v>0.0149792512252908</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02819958648515533</v>
+        <v>0.02763728432224813</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -3217,19 +3217,19 @@
         <v>86818</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68275</v>
+        <v>69845</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107151</v>
+        <v>108142</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02135897710501436</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01679706483829799</v>
+        <v>0.01718333083598456</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02636153503236554</v>
+        <v>0.02660515519485867</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2030719</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2014745</v>
+        <v>2016907</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2042577</v>
+        <v>2043703</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9780071491639117</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9703138551069032</v>
+        <v>0.9713551033527686</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9837179662929987</v>
+        <v>0.9842602000137707</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1869</v>
@@ -3267,19 +3267,19 @@
         <v>1947148</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1932231</v>
+        <v>1933349</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1958778</v>
+        <v>1958517</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9793029782550046</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9718004135148446</v>
+        <v>0.9723627156777519</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9851520456481891</v>
+        <v>0.9850207487747092</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3779</v>
@@ -3288,19 +3288,19 @@
         <v>3977867</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3957534</v>
+        <v>3956543</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3996410</v>
+        <v>3994840</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9786410228949857</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9736384649676344</v>
+        <v>0.9733948448051413</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9832029351617021</v>
+        <v>0.9828166691640154</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>14162</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7888</v>
+        <v>8394</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24481</v>
+        <v>24009</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02589485985466526</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01442271440629956</v>
+        <v>0.01534941453584142</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0447644914418743</v>
+        <v>0.04390075161089418</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3413,19 +3413,19 @@
         <v>14668</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7868</v>
+        <v>7366</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25423</v>
+        <v>24563</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02671150123776961</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01432853858402503</v>
+        <v>0.01341451811973229</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04629611075307706</v>
+        <v>0.04473064134332156</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -3434,19 +3434,19 @@
         <v>28830</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19268</v>
+        <v>19847</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41300</v>
+        <v>43446</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02630402031902831</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01757994858841501</v>
+        <v>0.01810797501872288</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0376815153653042</v>
+        <v>0.03963933344702717</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>532724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>522405</v>
+        <v>522877</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>538998</v>
+        <v>538492</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9741051401453348</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9552355085581257</v>
+        <v>0.9560992483891056</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9855772855937006</v>
+        <v>0.9846505854641586</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>513</v>
@@ -3484,19 +3484,19 @@
         <v>534472</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>523717</v>
+        <v>524577</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>541272</v>
+        <v>541774</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9732884987622303</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9537038892469234</v>
+        <v>0.9552693586566785</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9856714614159754</v>
+        <v>0.9865854818802677</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1001</v>
@@ -3505,19 +3505,19 @@
         <v>1067197</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1054727</v>
+        <v>1052581</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1076759</v>
+        <v>1076180</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9736959796809717</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9623184846346958</v>
+        <v>0.9603606665529728</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9824200514115851</v>
+        <v>0.9818920249812773</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>69134</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54378</v>
+        <v>54310</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89499</v>
+        <v>88407</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02046839301795961</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01609961881934563</v>
+        <v>0.01607950527960932</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02649761060635367</v>
+        <v>0.02617443200091404</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -3630,19 +3630,19 @@
         <v>78538</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63060</v>
+        <v>60541</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>99332</v>
+        <v>97309</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02223540088133417</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0178534626560092</v>
+        <v>0.01714012288007302</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02812278210078361</v>
+        <v>0.02754994129156521</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>137</v>
@@ -3651,19 +3651,19 @@
         <v>147672</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124088</v>
+        <v>123274</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>171756</v>
+        <v>172357</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02137164971145896</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01795852277147793</v>
+        <v>0.01784070516721827</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02485713349680998</v>
+        <v>0.02494415163966593</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3308484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3288119</v>
+        <v>3289211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3323240</v>
+        <v>3323308</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9795316069820403</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9735023893936462</v>
+        <v>0.9738255679990856</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9839003811806543</v>
+        <v>0.9839204947203906</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3254</v>
@@ -3701,19 +3701,19 @@
         <v>3453562</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3432768</v>
+        <v>3434791</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3469040</v>
+        <v>3471559</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9777645991186659</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9718772178992166</v>
+        <v>0.9724500587084348</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9821465373439908</v>
+        <v>0.9828598771199271</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6404</v>
@@ -3722,19 +3722,19 @@
         <v>6762046</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6737962</v>
+        <v>6737361</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6785630</v>
+        <v>6786444</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.978628350288541</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.97514286650319</v>
+        <v>0.9750558483603341</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9820414772285221</v>
+        <v>0.9821592948327817</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>21842</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14049</v>
+        <v>14302</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32107</v>
+        <v>32072</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03785073432313309</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02434654644188577</v>
+        <v>0.02478549976360838</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05564043054672705</v>
+        <v>0.05557876354792064</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -4086,19 +4086,19 @@
         <v>39776</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31184</v>
+        <v>30733</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50987</v>
+        <v>52463</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04851964147746977</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03803878040991504</v>
+        <v>0.03748914291800694</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06219601120816657</v>
+        <v>0.0639956954736263</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -4107,19 +4107,19 @@
         <v>61617</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49812</v>
+        <v>50071</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77738</v>
+        <v>77372</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04411219537534748</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03566054375766427</v>
+        <v>0.03584637138192821</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05565336001897507</v>
+        <v>0.05539126264022193</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>555205</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>544940</v>
+        <v>544975</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>562998</v>
+        <v>562745</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9621492656768669</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9443595694532729</v>
+        <v>0.9444212364520792</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9756534535581143</v>
+        <v>0.9752145002363914</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1361</v>
@@ -4157,19 +4157,19 @@
         <v>780009</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>768798</v>
+        <v>767322</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>788601</v>
+        <v>789052</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9514803585225303</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9378039887918336</v>
+        <v>0.9360043045263736</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9619612195900851</v>
+        <v>0.962510857081993</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2023</v>
@@ -4178,19 +4178,19 @@
         <v>1335215</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1319094</v>
+        <v>1319460</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1347020</v>
+        <v>1346761</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9558878046246526</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9443466399810249</v>
+        <v>0.9446087373597772</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9643394562423353</v>
+        <v>0.9641536286180719</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>52621</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37765</v>
+        <v>38953</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70552</v>
+        <v>71542</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02359077227771646</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01693089702098011</v>
+        <v>0.0174632779375726</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03162966956853349</v>
+        <v>0.03207325202510645</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -4303,19 +4303,19 @@
         <v>62950</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51318</v>
+        <v>51300</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77242</v>
+        <v>79708</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02899964325245396</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02364123100938818</v>
+        <v>0.02363277937852207</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03558374560783067</v>
+        <v>0.03671966789930497</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>136</v>
@@ -4324,19 +4324,19 @@
         <v>115571</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>97382</v>
+        <v>95476</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139133</v>
+        <v>137263</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02625842635029371</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02212588686503125</v>
+        <v>0.02169277693781709</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0316120935869957</v>
+        <v>0.03118716485605866</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2177945</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2160014</v>
+        <v>2159024</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2192801</v>
+        <v>2191613</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9764092277222837</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9683703304314664</v>
+        <v>0.9679267479748939</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9830691029790197</v>
+        <v>0.9825367220624273</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2830</v>
@@ -4374,19 +4374,19 @@
         <v>2107757</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2093465</v>
+        <v>2090999</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2119389</v>
+        <v>2119407</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.971000356747546</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9644162543921687</v>
+        <v>0.9632803321006949</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9763587689906117</v>
+        <v>0.9763672206214774</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4776</v>
@@ -4395,19 +4395,19 @@
         <v>4285703</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4262141</v>
+        <v>4264011</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4303892</v>
+        <v>4305798</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9737415736497064</v>
+        <v>0.9737415736497061</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9683879064130041</v>
+        <v>0.9688128351439415</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9778741131349687</v>
+        <v>0.9783072230621832</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>7685</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3716</v>
+        <v>3528</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14365</v>
+        <v>13742</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01080023133992204</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005222434825958173</v>
+        <v>0.004957645304857852</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02018745919638351</v>
+        <v>0.01931222184229569</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -4520,19 +4520,19 @@
         <v>20209</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13016</v>
+        <v>13707</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30891</v>
+        <v>30448</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02750008318488748</v>
+        <v>0.02750008318488747</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01771120056839918</v>
+        <v>0.01865267872300791</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04203605313594577</v>
+        <v>0.04143292313546092</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -4541,19 +4541,19 @@
         <v>27894</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19074</v>
+        <v>19067</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38799</v>
+        <v>39654</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01928460362167218</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01318636571069727</v>
+        <v>0.01318170247372632</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02682301533871654</v>
+        <v>0.02741436252942149</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>703902</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>697222</v>
+        <v>697845</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>707871</v>
+        <v>708059</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9891997686600781</v>
+        <v>0.9891997686600777</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.979812540803616</v>
+        <v>0.9806877781577041</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9947775651740415</v>
+        <v>0.995042354695142</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>979</v>
@@ -4591,19 +4591,19 @@
         <v>714668</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>703986</v>
+        <v>704429</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>721861</v>
+        <v>721170</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9724999168151124</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9579639468640544</v>
+        <v>0.9585670768645392</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9822887994316007</v>
+        <v>0.9813473212769921</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1651</v>
@@ -4612,19 +4612,19 @@
         <v>1418570</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1407665</v>
+        <v>1406810</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1427390</v>
+        <v>1427397</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9807153963783279</v>
+        <v>0.9807153963783277</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.973176984661284</v>
+        <v>0.9725856374705785</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9868136342893028</v>
+        <v>0.9868182975262737</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>82148</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63403</v>
+        <v>63658</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103595</v>
+        <v>102984</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02334272850576711</v>
+        <v>0.02334272850576712</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01801620199896038</v>
+        <v>0.01808885216553392</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02943704740981933</v>
+        <v>0.02926342242540108</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>177</v>
@@ -4737,19 +4737,19 @@
         <v>122935</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>104810</v>
+        <v>104175</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>143442</v>
+        <v>143731</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03299930141722157</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02813424758387018</v>
+        <v>0.02796356007797128</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03850420351922253</v>
+        <v>0.03858164708984622</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>259</v>
@@ -4758,19 +4758,19 @@
         <v>205082</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>178500</v>
+        <v>180085</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>234989</v>
+        <v>234810</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02830842031355317</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02463909278795961</v>
+        <v>0.02485797096231825</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03243651714356023</v>
+        <v>0.03241182822408588</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3437052</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3415605</v>
+        <v>3416216</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3455797</v>
+        <v>3455542</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9766572714942326</v>
+        <v>0.9766572714942329</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9705629525901807</v>
+        <v>0.970736577574599</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9819837980010396</v>
+        <v>0.9819111478344663</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5170</v>
@@ -4808,19 +4808,19 @@
         <v>3602434</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3581927</v>
+        <v>3581638</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3620559</v>
+        <v>3621194</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9670006985827784</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9614957964807774</v>
+        <v>0.9614183529101537</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9718657524161296</v>
+        <v>0.9720364399220286</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8450</v>
@@ -4829,19 +4829,19 @@
         <v>7039488</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7009581</v>
+        <v>7009760</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7066070</v>
+        <v>7064485</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9716915796864466</v>
+        <v>0.9716915796864469</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9675634828564398</v>
+        <v>0.9675881717759142</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9753609072120407</v>
+        <v>0.9751420290376819</v>
       </c>
     </row>
     <row r="15">
